--- a/data/List of text messages 9-15-20.xlsx
+++ b/data/List of text messages 9-15-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcl64\Dropbox (Partners HealthCare)\SHARED -- CENTER FOR HEALTHCARE DELIVERY SCIENCES\@@Roybal Center\Y1 001 Reinf Learn 260952\Text messages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lilybessette/BWH_DoPE/bwh-pharmacoepi-roybal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0391E8FF-F863-4155-9EAB-AB99B01CB92C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D7ECAF-FE8C-C240-BC11-AB5EFFCA8C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="26460" windowHeight="14955" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1220" yWindow="11860" windowWidth="26460" windowHeight="14960" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text messages" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Patient Education Links" sheetId="14" r:id="rId3"/>
     <sheet name="Calculations" sheetId="12" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Text messages'!$A$2:$K$134</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1345,15 +1348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1365,6 +1359,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3585,46 +3588,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="82.125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="82.1640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="79" t="s">
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>194</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <v>1</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39">
         <v>1</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="23" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36">
         <v>2</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
         <v>2</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39">
         <v>2</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36">
         <v>3</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>3</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39">
         <v>3</v>
       </c>
@@ -3974,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36">
         <v>4</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <v>4</v>
       </c>
@@ -4044,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36">
         <v>4</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36">
         <v>5</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
         <v>5</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="5" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>5</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
         <v>6</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36">
         <v>6</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39">
         <v>6</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36">
         <v>7</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36">
         <v>7</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39">
         <v>7</v>
       </c>
@@ -4394,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36">
         <v>8</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <v>8</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>8</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36">
         <v>9</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36">
         <v>9</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39">
         <v>9</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36">
         <v>10</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36">
         <v>10</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39">
         <v>10</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36">
         <v>11</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="5" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>11</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36">
         <v>12</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39">
         <v>12</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36">
         <v>13</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36">
         <v>13</v>
       </c>
@@ -4919,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39">
         <v>13</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36">
         <v>14</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="36">
         <v>14</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36">
         <v>15</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36">
         <v>15</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>15</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="36">
         <v>16</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>16</v>
       </c>
@@ -5199,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39">
         <v>16</v>
       </c>
@@ -5234,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36">
         <v>17</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="39">
         <v>17</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="36">
         <v>18</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="36">
         <v>18</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39">
         <v>18</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="36">
         <v>19</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <v>19</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="5" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="39">
         <v>19</v>
       </c>
@@ -5514,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>20</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36">
         <v>20</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39">
         <v>20</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="39">
         <v>21</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36">
         <v>21</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="39">
         <v>21</v>
       </c>
@@ -5724,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36">
         <v>22</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="36">
         <v>22</v>
       </c>
@@ -5794,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39">
         <v>22</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="60" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="59">
         <v>23</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39">
         <v>23</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="39">
         <v>23</v>
       </c>
@@ -5934,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36">
         <v>24</v>
       </c>
@@ -5969,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="39">
         <v>24</v>
       </c>
@@ -6004,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39">
         <v>24</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="36">
         <v>25</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36">
         <v>25</v>
       </c>
@@ -6109,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="39">
         <v>25</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="36">
         <v>26</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>26</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>27</v>
       </c>
@@ -6249,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>27</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39">
         <v>27</v>
       </c>
@@ -6319,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="36">
         <v>28</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36">
         <v>28</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="5" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="39">
         <v>28</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36">
         <v>29</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36">
         <v>29</v>
       </c>
@@ -6494,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39">
         <v>29</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="36">
         <v>30</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36">
         <v>30</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="39">
         <v>30</v>
       </c>
@@ -6634,14 +6638,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36">
         <v>31</v>
       </c>
       <c r="B88" s="36">
         <v>86</v>
       </c>
-      <c r="C88" s="81" t="s">
+      <c r="C88" s="78" t="s">
         <v>115</v>
       </c>
       <c r="D88" s="38">
@@ -6669,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="36">
         <v>31</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36">
         <v>32</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="36">
         <v>32</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39">
         <v>32</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="36">
         <v>33</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36">
         <v>33</v>
       </c>
@@ -6879,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="36">
         <v>34</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36">
         <v>34</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="39">
         <v>34</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36">
         <v>35</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36">
         <v>35</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36">
         <v>36</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="36">
         <v>36</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="5" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39">
         <v>36</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="36">
         <v>37</v>
       </c>
@@ -7194,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36">
         <v>37</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="39">
         <v>37</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36">
         <v>38</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="36">
         <v>38</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39">
         <v>38</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="36">
         <v>39</v>
       </c>
@@ -7404,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36">
         <v>39</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="39">
         <v>39</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36">
         <v>40</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="36">
         <v>40</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39">
         <v>40</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="36">
         <v>41</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36">
         <v>41</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="36">
         <v>42</v>
       </c>
@@ -7684,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36">
         <v>42</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="39">
         <v>42</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36">
         <v>43</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="36">
         <v>43</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39">
         <v>43</v>
       </c>
@@ -7859,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="36">
         <v>44</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39">
         <v>44</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="36">
         <v>45</v>
       </c>
@@ -7964,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39">
         <v>45</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="36">
         <v>46</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39">
         <v>46</v>
       </c>
@@ -8069,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="36">
         <v>47</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36">
         <v>47</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="36">
         <v>48</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36">
         <v>48</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="5" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="39">
         <v>48</v>
       </c>
@@ -8244,10 +8248,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="82"/>
-      <c r="B134" s="83"/>
-      <c r="C134" s="84" t="s">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="79"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D134" s="57"/>
@@ -8259,19 +8263,41 @@
       <c r="J134" s="57"/>
       <c r="K134" s="57"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C159" s="29"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C160" s="29"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" s="29"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K134" xr:uid="{2376DF98-7B3A-4C4F-AC88-6E0C51326DEF}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -9030,13 +9056,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -9044,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9052,7 +9078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -9068,7 +9094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -9076,7 +9102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9105,64 +9131,64 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -9188,17 +9214,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -9211,7 +9237,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -9222,16 +9248,16 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
@@ -9239,7 +9265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="67" t="s">
         <v>29</v>
       </c>
@@ -9272,7 +9298,7 @@
       <c r="K4" s="74"/>
       <c r="L4" s="75"/>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
@@ -9286,7 +9312,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -9316,7 +9342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -9346,7 +9372,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -9374,7 +9400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -9403,7 +9429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -9436,7 +9462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
